--- a/finalstructs.xlsx
+++ b/finalstructs.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Домены</t>
   </si>
   <si>
-    <t xml:space="preserve">Способ взаимодействия (Interaction class)</t>
+    <t xml:space="preserve">Способ взаимодействия (Interaction mode)</t>
   </si>
   <si>
     <t xml:space="preserve">Структуры</t>
@@ -16031,7 +16031,7 @@
   <dimension ref="A1:C2565"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B2565"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
